--- a/资源定义.xlsx
+++ b/资源定义.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="新建文本文档_1" localSheetId="1">Sheet1!$B$2:$F$101</definedName>
+    <definedName name="新建文本文档_2" localSheetId="1">Sheet1!$C$3:$G$102</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="新建文本文档" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="新建文本文档1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="936" sourceFile="C:\Users\Harry\Desktop\新建文本文档.txt" semicolon="1">
       <textFields count="5">
         <textField/>
@@ -440,12 +440,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>357</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -463,612 +460,1266 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$102</c:f>
+              <c:f>Sheet1!$C$3:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>224</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>228</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>232</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>236</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>244</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>272</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>274</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>278</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>282</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>284</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>286</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>288</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>292</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>302</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>306</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>308</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>310</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>314</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>316</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>322</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>324</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>326</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>328</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>332</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>334</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>336</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>340</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>344</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>346</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>358</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>370</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>372</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>376</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>378</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>382</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>384</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>388</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>390</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>392</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>396</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED61-474D-B6D0-9566AD862BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>364</c:v>
                 </c:pt>
+                <c:pt idx="83">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>368</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>374</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>375</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>379</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>382</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>385</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>386</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>391</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>392</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>397</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>399</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>405</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>407</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>411</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>414</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>415</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>419</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>422</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>426</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>428</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>431</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>435</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>438</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>440</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>442</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>448</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>449</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>452</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>455</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>460</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>465</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>468</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>474</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>478</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>481</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>486</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>488</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>493</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>496</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>499</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>505</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>508</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>513</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>516</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>519</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>523</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>526</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>531</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>536</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>539</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>544</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>548</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>550</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>556</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>560</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>564</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>567</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>570</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>576</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>580</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>584</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>588</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>593</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>596</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>602</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>606</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>610</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>618</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>623</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>627</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>632</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>637</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>642</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>645</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>650</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>655</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>659</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>664</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>668</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>672</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>676</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>682</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>688</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>691</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>696</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>701</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>705</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>710</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>716</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>720</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>725</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>730</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>734</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>739</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1727,1303 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F91-475C-A419-E2349C374483}"/>
+              <c16:uniqueId val="{00000001-ED61-474D-B6D0-9566AD862BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ED61-474D-B6D0-9566AD862BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED61-474D-B6D0-9566AD862BB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1089,11 +3036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2122172016"/>
-        <c:axId val="2130999392"/>
+        <c:axId val="190418896"/>
+        <c:axId val="190408496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122172016"/>
+        <c:axId val="190418896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +3083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130999392"/>
+        <c:crossAx val="190408496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +3091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130999392"/>
+        <c:axId val="190408496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +3142,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122172016"/>
+        <c:crossAx val="190418896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,6 +3154,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1804,20 +3783,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1836,7 +3815,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="新建文本文档_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,7 +4084,7 @@
   <dimension ref="D2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2839,1715 +4818,1715 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F101"/>
+  <dimension ref="C3:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="C2" sqref="C2:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="C2">
-        <v>357</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="D3">
+        <v>358</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C4">
         <v>202</v>
       </c>
-      <c r="C3">
+      <c r="D4">
+        <v>360</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>361</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>206</v>
+      </c>
+      <c r="D6">
+        <v>365</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>208</v>
+      </c>
+      <c r="D7">
+        <v>368</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>210</v>
+      </c>
+      <c r="D8">
+        <v>371</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>212</v>
+      </c>
+      <c r="D9">
+        <v>374</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>214</v>
+      </c>
+      <c r="D10">
+        <v>378</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>216</v>
+      </c>
+      <c r="D11">
+        <v>381</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>218</v>
+      </c>
+      <c r="D12">
+        <v>383</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>220</v>
+      </c>
+      <c r="D13">
+        <v>386</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>222</v>
+      </c>
+      <c r="D14">
+        <v>387</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>224</v>
+      </c>
+      <c r="D15">
+        <v>390</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>226</v>
+      </c>
+      <c r="D16">
+        <v>396</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>228</v>
+      </c>
+      <c r="D17">
+        <v>398</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>230</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>232</v>
+      </c>
+      <c r="D19">
+        <v>405</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>234</v>
+      </c>
+      <c r="D20">
+        <v>406</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>236</v>
+      </c>
+      <c r="D21">
+        <v>408</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>238</v>
+      </c>
+      <c r="D22">
+        <v>411</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>240</v>
+      </c>
+      <c r="D23">
+        <v>417</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>242</v>
+      </c>
+      <c r="D24">
+        <v>419</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>244</v>
+      </c>
+      <c r="D25">
+        <v>421</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>246</v>
+      </c>
+      <c r="D26">
+        <v>425</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>248</v>
+      </c>
+      <c r="D27">
+        <v>427</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>250</v>
+      </c>
+      <c r="D28">
+        <v>430</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>252</v>
+      </c>
+      <c r="D29">
+        <v>432</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>254</v>
+      </c>
+      <c r="D30">
+        <v>436</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>256</v>
+      </c>
+      <c r="D31">
+        <v>440</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>258</v>
+      </c>
+      <c r="D32">
+        <v>442</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>260</v>
+      </c>
+      <c r="D33">
+        <v>446</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>262</v>
+      </c>
+      <c r="D34">
+        <v>450</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>264</v>
+      </c>
+      <c r="D35">
+        <v>454</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>266</v>
+      </c>
+      <c r="D36">
+        <v>457</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>268</v>
+      </c>
+      <c r="D37">
+        <v>460</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>270</v>
+      </c>
+      <c r="D38">
+        <v>464</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>272</v>
+      </c>
+      <c r="D39">
+        <v>468</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>274</v>
+      </c>
+      <c r="D40">
+        <v>472</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>276</v>
+      </c>
+      <c r="D41">
+        <v>475</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>278</v>
+      </c>
+      <c r="D42">
+        <v>479</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>280</v>
+      </c>
+      <c r="D43">
+        <v>481</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>282</v>
+      </c>
+      <c r="D44">
+        <v>488</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>284</v>
+      </c>
+      <c r="D45">
+        <v>492</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>286</v>
+      </c>
+      <c r="D46">
+        <v>494</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>288</v>
+      </c>
+      <c r="D47">
+        <v>496</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>290</v>
+      </c>
+      <c r="D48">
+        <v>501</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>292</v>
+      </c>
+      <c r="D49">
+        <v>505</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>294</v>
+      </c>
+      <c r="D50">
+        <v>508</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>296</v>
+      </c>
+      <c r="D51">
+        <v>514</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>298</v>
+      </c>
+      <c r="D52">
+        <v>517</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>300</v>
+      </c>
+      <c r="D53">
+        <v>520</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>302</v>
+      </c>
+      <c r="D54">
+        <v>523</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>304</v>
+      </c>
+      <c r="D55">
+        <v>528</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>306</v>
+      </c>
+      <c r="D56">
+        <v>532</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>308</v>
+      </c>
+      <c r="D57">
+        <v>536</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>310</v>
+      </c>
+      <c r="D58">
+        <v>541</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>312</v>
+      </c>
+      <c r="D59">
+        <v>545</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>314</v>
+      </c>
+      <c r="D60">
+        <v>547</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>316</v>
+      </c>
+      <c r="D61">
+        <v>552</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>318</v>
+      </c>
+      <c r="D62">
+        <v>556</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>320</v>
+      </c>
+      <c r="D63">
+        <v>560</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>322</v>
+      </c>
+      <c r="D64">
+        <v>564</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>324</v>
+      </c>
+      <c r="D65">
+        <v>570</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>326</v>
+      </c>
+      <c r="D66">
+        <v>573</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>328</v>
+      </c>
+      <c r="D67">
+        <v>577</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>330</v>
+      </c>
+      <c r="D68">
+        <v>581</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>332</v>
+      </c>
+      <c r="D69">
+        <v>585</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>334</v>
+      </c>
+      <c r="D70">
+        <v>589</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>336</v>
+      </c>
+      <c r="D71">
+        <v>597</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>338</v>
+      </c>
+      <c r="D72">
+        <v>598</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>340</v>
+      </c>
+      <c r="D73">
+        <v>602</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>342</v>
+      </c>
+      <c r="D74">
+        <v>606</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>344</v>
+      </c>
+      <c r="D75">
+        <v>613</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>346</v>
+      </c>
+      <c r="D76">
+        <v>616</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>348</v>
+      </c>
+      <c r="D77">
+        <v>621</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>350</v>
+      </c>
+      <c r="D78">
+        <v>626</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>352</v>
+      </c>
+      <c r="D79">
+        <v>631</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>354</v>
+      </c>
+      <c r="D80">
+        <v>633</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>356</v>
+      </c>
+      <c r="D81">
+        <v>639</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>358</v>
+      </c>
+      <c r="D82">
+        <v>644</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>360</v>
+      </c>
+      <c r="D83">
+        <v>647</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>362</v>
+      </c>
+      <c r="D84">
+        <v>653</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C85">
         <v>364</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>204</v>
-      </c>
-      <c r="C4">
+      <c r="D85">
+        <v>656</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>366</v>
+      </c>
+      <c r="D86">
+        <v>661</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C87">
         <v>368</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>206</v>
-      </c>
-      <c r="C5">
-        <v>369</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>208</v>
-      </c>
-      <c r="C6">
+      <c r="D87">
+        <v>668</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>370</v>
+      </c>
+      <c r="D88">
+        <v>672</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>372</v>
+      </c>
+      <c r="D89">
+        <v>676</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C90">
         <v>374</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>210</v>
-      </c>
-      <c r="C7">
-        <v>375</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>212</v>
-      </c>
-      <c r="C8">
-        <v>379</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>214</v>
-      </c>
-      <c r="C9">
+      <c r="D90">
+        <v>680</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>376</v>
+      </c>
+      <c r="D91">
+        <v>686</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>378</v>
+      </c>
+      <c r="D92">
+        <v>690</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>380</v>
+      </c>
+      <c r="D93">
+        <v>695</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C94">
         <v>382</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>216</v>
-      </c>
-      <c r="C10">
-        <v>385</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>218</v>
-      </c>
-      <c r="C11">
+      <c r="D94">
+        <v>700</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>384</v>
+      </c>
+      <c r="D95">
+        <v>705</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C96">
         <v>386</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>220</v>
-      </c>
-      <c r="C12">
-        <v>391</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>222</v>
-      </c>
-      <c r="C13">
+      <c r="D96">
+        <v>709</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>388</v>
+      </c>
+      <c r="D97">
+        <v>715</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>390</v>
+      </c>
+      <c r="D98">
+        <v>719</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C99">
         <v>392</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>224</v>
-      </c>
-      <c r="C14">
-        <v>397</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>226</v>
-      </c>
-      <c r="C15">
-        <v>400</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>228</v>
-      </c>
-      <c r="C16">
-        <v>399</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>230</v>
-      </c>
-      <c r="C17">
-        <v>405</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>232</v>
-      </c>
-      <c r="C18">
-        <v>407</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>234</v>
-      </c>
-      <c r="C19">
-        <v>411</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>236</v>
-      </c>
-      <c r="C20">
-        <v>414</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>238</v>
-      </c>
-      <c r="C21">
-        <v>415</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>240</v>
-      </c>
-      <c r="C22">
-        <v>419</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>242</v>
-      </c>
-      <c r="C23">
-        <v>422</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>244</v>
-      </c>
-      <c r="C24">
-        <v>426</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>246</v>
-      </c>
-      <c r="C25">
-        <v>428</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>248</v>
-      </c>
-      <c r="C26">
-        <v>431</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>250</v>
-      </c>
-      <c r="C27">
-        <v>435</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>252</v>
-      </c>
-      <c r="C28">
-        <v>438</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>254</v>
-      </c>
-      <c r="C29">
-        <v>440</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>256</v>
-      </c>
-      <c r="C30">
-        <v>442</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>258</v>
-      </c>
-      <c r="C31">
-        <v>448</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>260</v>
-      </c>
-      <c r="C32">
-        <v>449</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>262</v>
-      </c>
-      <c r="C33">
-        <v>452</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>264</v>
-      </c>
-      <c r="C34">
-        <v>455</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>266</v>
-      </c>
-      <c r="C35">
-        <v>460</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>268</v>
-      </c>
-      <c r="C36">
-        <v>465</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>270</v>
-      </c>
-      <c r="C37">
-        <v>468</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>272</v>
-      </c>
-      <c r="C38">
-        <v>470</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>274</v>
-      </c>
-      <c r="C39">
-        <v>474</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>276</v>
-      </c>
-      <c r="C40">
-        <v>478</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>278</v>
-      </c>
-      <c r="C41">
-        <v>481</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>280</v>
-      </c>
-      <c r="C42">
-        <v>486</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>282</v>
-      </c>
-      <c r="C43">
-        <v>488</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>284</v>
-      </c>
-      <c r="C44">
-        <v>493</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>286</v>
-      </c>
-      <c r="C45">
-        <v>496</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>288</v>
-      </c>
-      <c r="C46">
-        <v>499</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>290</v>
-      </c>
-      <c r="C47">
-        <v>505</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>292</v>
-      </c>
-      <c r="C48">
-        <v>508</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>294</v>
-      </c>
-      <c r="C49">
-        <v>513</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>296</v>
-      </c>
-      <c r="C50">
-        <v>516</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>298</v>
-      </c>
-      <c r="C51">
-        <v>519</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>300</v>
-      </c>
-      <c r="C52">
-        <v>523</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>302</v>
-      </c>
-      <c r="C53">
-        <v>526</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>304</v>
-      </c>
-      <c r="C54">
-        <v>531</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>306</v>
-      </c>
-      <c r="C55">
-        <v>536</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <v>308</v>
-      </c>
-      <c r="C56">
-        <v>539</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>310</v>
-      </c>
-      <c r="C57">
-        <v>544</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <v>312</v>
-      </c>
-      <c r="C58">
-        <v>548</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>314</v>
-      </c>
-      <c r="C59">
-        <v>550</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>316</v>
-      </c>
-      <c r="C60">
-        <v>556</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>318</v>
-      </c>
-      <c r="C61">
-        <v>560</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <v>320</v>
-      </c>
-      <c r="C62">
-        <v>564</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>322</v>
-      </c>
-      <c r="C63">
-        <v>567</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <v>324</v>
-      </c>
-      <c r="C64">
-        <v>570</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>326</v>
-      </c>
-      <c r="C65">
-        <v>576</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>328</v>
-      </c>
-      <c r="C66">
-        <v>580</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>330</v>
-      </c>
-      <c r="C67">
-        <v>584</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <v>332</v>
-      </c>
-      <c r="C68">
-        <v>588</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <v>334</v>
-      </c>
-      <c r="C69">
-        <v>593</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <v>336</v>
-      </c>
-      <c r="C70">
-        <v>596</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>338</v>
-      </c>
-      <c r="C71">
-        <v>602</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>340</v>
-      </c>
-      <c r="C72">
-        <v>606</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <v>342</v>
-      </c>
-      <c r="C73">
-        <v>610</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>344</v>
-      </c>
-      <c r="C74">
-        <v>614</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>346</v>
-      </c>
-      <c r="C75">
-        <v>618</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>348</v>
-      </c>
-      <c r="C76">
-        <v>623</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>350</v>
-      </c>
-      <c r="C77">
-        <v>627</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>352</v>
-      </c>
-      <c r="C78">
-        <v>632</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>354</v>
-      </c>
-      <c r="C79">
-        <v>637</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80">
-        <v>356</v>
-      </c>
-      <c r="C80">
-        <v>642</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81">
-        <v>358</v>
-      </c>
-      <c r="C81">
-        <v>645</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <v>360</v>
-      </c>
-      <c r="C82">
-        <v>650</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>362</v>
-      </c>
-      <c r="C83">
-        <v>655</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84">
-        <v>364</v>
-      </c>
-      <c r="C84">
-        <v>659</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>366</v>
-      </c>
-      <c r="C85">
-        <v>664</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86">
-        <v>368</v>
-      </c>
-      <c r="C86">
-        <v>668</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <v>370</v>
-      </c>
-      <c r="C87">
-        <v>672</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88">
-        <v>372</v>
-      </c>
-      <c r="C88">
-        <v>676</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>374</v>
-      </c>
-      <c r="C89">
-        <v>682</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <v>376</v>
-      </c>
-      <c r="C90">
-        <v>688</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <v>378</v>
-      </c>
-      <c r="C91">
-        <v>691</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>380</v>
-      </c>
-      <c r="C92">
-        <v>696</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>382</v>
-      </c>
-      <c r="C93">
-        <v>701</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>384</v>
-      </c>
-      <c r="C94">
-        <v>705</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <v>386</v>
-      </c>
-      <c r="C95">
-        <v>710</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>388</v>
-      </c>
-      <c r="C96">
-        <v>716</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>390</v>
-      </c>
-      <c r="C97">
-        <v>720</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98">
-        <v>392</v>
-      </c>
-      <c r="C98">
-        <v>725</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99">
+      <c r="D99">
+        <v>724</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C100">
         <v>394</v>
       </c>
-      <c r="C99">
+      <c r="D100">
         <v>730</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100">
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C101">
         <v>396</v>
       </c>
-      <c r="C100">
-        <v>734</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101">
+      <c r="D101">
+        <v>736</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C102">
         <v>398</v>
       </c>
-      <c r="C101">
-        <v>739</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
+      <c r="D102">
+        <v>740</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
         <v>1</v>
       </c>
     </row>
